--- a/STD - דןגמא לתסריטים של אתר תן ביס.xlsx
+++ b/STD - דןגמא לתסריטים של אתר תן ביס.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1af478375a691e0b/שולחן העבודה/שיעור עם דליה/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1af478375a691e0b/Documents/GitHub/tenbis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{CA20CE9E-10E3-4397-BC35-A86E2D925D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:4000b_{CA20CE9E-10E3-4397-BC35-A86E2D925D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2378BC-42E2-4F69-BBF1-40EC3E6563DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="861" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="861" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גרסאות" sheetId="14" r:id="rId1"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,16 +741,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,9 +762,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -771,7 +771,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,19 +783,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -843,16 +840,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,23 +883,26 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,13 +923,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="B7:E11" totalsRowShown="0">
-  <autoFilter ref="B7:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה1" displayName="טבלה1" ref="B7:E11" totalsRowShown="0">
+  <autoFilter ref="B7:E11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="גרסה"/>
-    <tableColumn id="2" name="עורך"/>
-    <tableColumn id="3" name="תאריך"/>
-    <tableColumn id="4" name="תכולה"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="גרסה"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="עורך"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="תאריך"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="תכולה"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1258,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -1273,45 +1270,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="22"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>108</v>
       </c>
       <c r="E7" t="s">
@@ -1322,16 +1319,16 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>44685</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1341,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:G70"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -1358,675 +1355,675 @@
   <sheetData>
     <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="30.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="30"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="30"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="30"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="30"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="30"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="30"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="30"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="30"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="30"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="30"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="30"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="30"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="30"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="30"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="30"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="30"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="30"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="30"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="30"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="30"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="30"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="30"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="30"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="30"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="27"/>
     </row>
     <row r="52" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="30"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="30"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="30"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="27"/>
     </row>
     <row r="56" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="30"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="30"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="30"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="30"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="27"/>
     </row>
     <row r="62" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="30"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="27"/>
     </row>
     <row r="63" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="30"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="27"/>
     </row>
     <row r="64" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="30"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="30"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="30"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="30"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="30"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="35"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
     </row>
     <row r="70" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2034,16 +2031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="22.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
@@ -2054,788 +2051,782 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="D1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f>A7+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f>A10+1</f>
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f>A12+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <f>A14+1</f>
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <f>A18+1</f>
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2849,7 +2840,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
@@ -2858,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
@@ -2867,65 +2858,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.59765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="42.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="39.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>10</v>
       </c>
     </row>
